--- a/biology/Botanique/Zizania_aquatica/Zizania_aquatica.xlsx
+++ b/biology/Botanique/Zizania_aquatica/Zizania_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zizania aquatica, la zizanie aquatique ou riz sauvage, est une espèce de plantes aquatiques de la famille des Poaceae, originaire d'Amérique du Nord.
 </t>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (24 juin 2016)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (24 juin 2016) :
 Ceratochaete aquatica (L.) Lunell,
 Hydropyrum esculentum Link,
 Limnochloa caduciflora Turcz. ex Trin.,
 Stipa angulata Steud., pro syn.,
 Zizania clavulosa Michx.,
-Zizania effusa Munro, pro syn.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (24 juin 2016)[3] (Attention liste brute contenant possiblement des synonymes) :
+Zizania effusa Munro, pro syn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zizania_aquatica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zizania_aquatica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (24 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Zizania aquatica subsp. angustifolia (Hitchc.) Tzvelev
 sous-espèce Zizania aquatica subsp. aquatica
 sous-espèce Zizania aquatica subsp. brevis (Fassett) S.L. Chen
